--- a/mb-pls/km2/Clusters_km2.xlsx
+++ b/mb-pls/km2/Clusters_km2.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -353,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,19 +399,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>68.18181818181817</v>
+        <v>70.45454545454545</v>
       </c>
       <c r="C2">
-        <v>85.71428571428571</v>
+        <v>86.11111111111111</v>
       </c>
       <c r="D2">
         <v>44</v>
       </c>
       <c r="E2">
-        <v>4.369040848764264E-10</v>
+        <v>1.083516922168276E-10</v>
       </c>
       <c r="F2">
-        <v>6.240238548572206</v>
+        <v>6.454814286827956</v>
       </c>
     </row>
     <row r="3">
@@ -423,16 +424,16 @@
         <v>70</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="D3">
         <v>40</v>
       </c>
       <c r="E3">
-        <v>2.190448227894884E-09</v>
+        <v>8.177325064588236E-09</v>
       </c>
       <c r="F3">
-        <v>5.983014824498708</v>
+        <v>5.764761800758095</v>
       </c>
     </row>
     <row r="4">
@@ -442,19 +443,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>54.38596491228071</v>
+        <v>56.14035087719298</v>
       </c>
       <c r="C4">
-        <v>88.57142857142857</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="D4">
         <v>56.99999999999999</v>
       </c>
       <c r="E4">
-        <v>1.613881019544541E-06</v>
+        <v>7.186693087802802E-07</v>
       </c>
       <c r="F4">
-        <v>4.796591688993338</v>
+        <v>4.956249468225285</v>
       </c>
     </row>
     <row r="5">
@@ -467,60 +468,60 @@
         <v>65.51724137931035</v>
       </c>
       <c r="C5">
-        <v>54.28571428571428</v>
+        <v>52.77777777777778</v>
       </c>
       <c r="D5">
         <v>29</v>
       </c>
       <c r="E5">
-        <v>7.735617715194597E-05</v>
+        <v>0.0001417460389776161</v>
       </c>
       <c r="F5">
-        <v>3.952446656355984</v>
+        <v>3.805101524235765</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>X12x2_MAT1FRLAV_1=2</t>
+          <t>LR_LRF=1</t>
         </is>
       </c>
       <c r="B6">
-        <v>52.5</v>
+        <v>68.75</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>30.55555555555556</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>0.00342178605018749</v>
+        <v>0.004740466022500109</v>
       </c>
       <c r="F6">
-        <v>2.927063867171692</v>
+        <v>2.824160362261472</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LR_LRF=1</t>
+          <t>X12x2_MAT1FRLAV_1=2</t>
         </is>
       </c>
       <c r="B7">
-        <v>68.75</v>
+        <v>52.5</v>
       </c>
       <c r="C7">
-        <v>31.42857142857143</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>0.003503489031522808</v>
+        <v>0.006089967014640646</v>
       </c>
       <c r="F7">
-        <v>2.91971742577288</v>
+        <v>2.742897616899211</v>
       </c>
     </row>
     <row r="8">
@@ -533,16 +534,16 @@
         <v>63.1578947368421</v>
       </c>
       <c r="C8">
-        <v>34.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="D8">
         <v>19</v>
       </c>
       <c r="E8">
-        <v>0.006558199954796748</v>
+        <v>0.008989408636901657</v>
       </c>
       <c r="F8">
-        <v>2.71848313214831</v>
+        <v>2.612456671110756</v>
       </c>
     </row>
     <row r="9">
@@ -555,16 +556,16 @@
         <v>56.00000000000001</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="D9">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>0.0146454086211839</v>
+        <v>0.02062105860091171</v>
       </c>
       <c r="F9">
-        <v>2.441030726475534</v>
+        <v>2.314851532482314</v>
       </c>
     </row>
     <row r="10">
@@ -577,236 +578,280 @@
         <v>46.93877551020408</v>
       </c>
       <c r="C10">
-        <v>65.71428571428571</v>
+        <v>63.88888888888889</v>
       </c>
       <c r="D10">
         <v>49</v>
       </c>
       <c r="E10">
-        <v>0.01582215695704602</v>
+        <v>0.02818401968868811</v>
       </c>
       <c r="F10">
-        <v>2.412992227901709</v>
+        <v>2.194715395168379</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>y=Sain</t>
+          <t>X25x1_ElvAlterChoiPers=1</t>
         </is>
       </c>
       <c r="B11">
-        <v>17.24137931034483</v>
+        <v>45.28301886792453</v>
       </c>
       <c r="C11">
-        <v>14.28571428571428</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E11">
-        <v>0.01710067354360464</v>
+        <v>0.04330404497544037</v>
       </c>
       <c r="F11">
-        <v>-2.384536026241585</v>
+        <v>2.020765507637563</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>T10_PS_EauDebi_3=1</t>
+          <t>X25x1_ElvAlterChoiPers=0</t>
         </is>
       </c>
       <c r="B12">
-        <v>21.42857142857143</v>
+        <v>25.53191489361702</v>
       </c>
       <c r="C12">
-        <v>25.71428571428571</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="D12">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E12">
-        <v>0.01644954638772128</v>
+        <v>0.04330404497544038</v>
       </c>
       <c r="F12">
-        <v>-2.398785524853765</v>
+        <v>-2.020765507637563</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>T13_ENG_milieuDegrad.x=0</t>
+          <t>y=Sain</t>
         </is>
       </c>
       <c r="B13">
-        <v>23.52941176470588</v>
+        <v>20.68965517241379</v>
       </c>
       <c r="C13">
-        <v>34.28571428571428</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="D13">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E13">
-        <v>0.01582215695704603</v>
+        <v>0.04284597939687979</v>
       </c>
       <c r="F13">
-        <v>-2.412992227901709</v>
+        <v>-2.025208303597462</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>X06x1_gene_majo_1_rec=1</t>
+          <t>T10_PS_EauDebi_3=1</t>
         </is>
       </c>
       <c r="B14">
-        <v>28.39506172839506</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="C14">
-        <v>65.71428571428571</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="D14">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="E14">
-        <v>0.006558199954796755</v>
+        <v>0.03279516985180232</v>
       </c>
       <c r="F14">
-        <v>-2.71848313214831</v>
+        <v>-2.134581990109311</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LR_LRF=0</t>
+          <t>T13_ENG_milieuDegrad.x=0</t>
         </is>
       </c>
       <c r="B15">
-        <v>28.57142857142857</v>
+        <v>25.49019607843137</v>
       </c>
       <c r="C15">
-        <v>68.57142857142857</v>
+        <v>36.11111111111111</v>
       </c>
       <c r="D15">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="E15">
-        <v>0.003503489031522805</v>
+        <v>0.02818401968868813</v>
       </c>
       <c r="F15">
-        <v>-2.91971742577288</v>
+        <v>-2.194715395168379</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>X12x2_MAT1FRLAV_1=0</t>
+          <t>X06x1_gene_majo_1_rec=1</t>
         </is>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>29.62962962962963</v>
       </c>
       <c r="C16">
-        <v>5.714285714285714</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="E16">
-        <v>0.0006771638975043184</v>
+        <v>0.008989408636901652</v>
       </c>
       <c r="F16">
-        <v>-3.398661823503218</v>
+        <v>-2.612456671110756</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ENG_TROU=0</t>
+          <t>LR_LRF=0</t>
         </is>
       </c>
       <c r="B17">
-        <v>22.53521126760564</v>
+        <v>29.76190476190476</v>
       </c>
       <c r="C17">
-        <v>45.71428571428572</v>
+        <v>69.44444444444444</v>
       </c>
       <c r="D17">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E17">
-        <v>7.735617715194597E-05</v>
+        <v>0.004740466022500106</v>
       </c>
       <c r="F17">
-        <v>-3.952446656355984</v>
+        <v>-2.824160362261472</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>y=PS_malade</t>
+          <t>X12x2_MAT1FRLAV_1=0</t>
         </is>
       </c>
       <c r="B18">
-        <v>6.451612903225806</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>5.714285714285714</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>2.577394239723951E-05</v>
+        <v>0.0004588637935558945</v>
       </c>
       <c r="F18">
-        <v>-4.207913552471214</v>
+        <v>-3.503687325023753</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>X19x2_ABB_E=0</t>
+          <t>ENG_TROU=0</t>
         </is>
       </c>
       <c r="B19">
-        <v>9.302325581395349</v>
+        <v>23.94366197183098</v>
       </c>
       <c r="C19">
-        <v>11.42857142857143</v>
+        <v>47.22222222222222</v>
       </c>
       <c r="D19">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E19">
-        <v>1.613881019544541E-06</v>
+        <v>0.0001417460389776161</v>
       </c>
       <c r="F19">
-        <v>-4.796591688993338</v>
+        <v>-3.805101524235765</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>y=PS_malade</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>6.451612903225806</v>
+      </c>
+      <c r="C20">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="D20">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>1.500453629301917E-05</v>
+      </c>
+      <c r="F20">
+        <v>-4.32862177189366</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>X19x2_ABB_E=0</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>9.302325581395349</v>
+      </c>
+      <c r="C21">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="D21">
+        <v>43</v>
+      </c>
+      <c r="E21">
+        <v>7.186693087802813E-07</v>
+      </c>
+      <c r="F21">
+        <v>-4.956249468225285</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>X18x2_ABBTX_PS=0</t>
         </is>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>8.928571428571429</v>
       </c>
-      <c r="C20">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="D20">
+      <c r="C22">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="D22">
         <v>56.00000000000001</v>
       </c>
-      <c r="E20">
-        <v>4.369040848764264E-10</v>
-      </c>
-      <c r="F20">
-        <v>-6.240238548572206</v>
+      <c r="E22">
+        <v>1.083516922168276E-10</v>
+      </c>
+      <c r="F22">
+        <v>-6.454814286827956</v>
       </c>
     </row>
   </sheetData>
@@ -816,7 +861,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -857,463 +902,111 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>y=PS_malade</t>
+          <t>X18x2_ABBTX_PS=0</t>
         </is>
       </c>
       <c r="B2">
-        <v>83.87096774193549</v>
+        <v>37.5</v>
       </c>
       <c r="C2">
-        <v>68.42105263157895</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E2">
-        <v>2.849467770079229E-10</v>
+        <v>6.595840887884186E-07</v>
       </c>
       <c r="F2">
-        <v>6.30675476304785</v>
+        <v>4.972900823686963</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>X19x2_ABB_E=0</t>
+          <t>X12x2_MAT1FRLAV_1=0</t>
         </is>
       </c>
       <c r="B3">
-        <v>65.11627906976744</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>73.68421052631578</v>
+        <v>47.61904761904761</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1.425618920311419E-06</v>
+        <v>0.01219571395820685</v>
       </c>
       <c r="F3">
-        <v>4.821389209583734</v>
+        <v>2.506430184918219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>X18x2_ABBTX_PS=0</t>
+          <t>T10_PS_EauDebi_3=1</t>
         </is>
       </c>
       <c r="B4">
-        <v>53.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="C4">
-        <v>78.94736842105263</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="D4">
-        <v>56.00000000000001</v>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>0.0002952676582299571</v>
+        <v>0.01256057121726784</v>
       </c>
       <c r="F4">
-        <v>3.619416858636427</v>
+        <v>2.495991215135445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>X25x1_ElvAlterChoiPers=0</t>
+          <t>X12x2_MAT1FRLAV_1=2</t>
         </is>
       </c>
       <c r="B5">
-        <v>55.31914893617022</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>68.42105263157895</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E5">
-        <v>0.0009091028687614564</v>
+        <v>0.02801783774420711</v>
       </c>
       <c r="F5">
-        <v>3.317243686250813</v>
+        <v>-2.197036525017328</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A03_Pos10sVERS=1</t>
+          <t>X18x2_ABBTX_PS=1</t>
         </is>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>55.26315789473685</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E6">
-        <v>0.001172924822071966</v>
+        <v>6.595840887884186E-07</v>
       </c>
       <c r="F6">
-        <v>3.24538365587307</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>T13_ENG_milieuDegrad.x=0</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>52.94117647058824</v>
-      </c>
-      <c r="C7">
-        <v>71.05263157894737</v>
-      </c>
-      <c r="D7">
-        <v>51</v>
-      </c>
-      <c r="E7">
-        <v>0.001884132427423837</v>
-      </c>
-      <c r="F7">
-        <v>3.107913441330891</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ENG_TROU=0</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>46.47887323943662</v>
-      </c>
-      <c r="C8">
-        <v>86.8421052631579</v>
-      </c>
-      <c r="D8">
-        <v>71</v>
-      </c>
-      <c r="E8">
-        <v>0.005994622298811604</v>
-      </c>
-      <c r="F8">
-        <v>2.748075393610414</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>X13x2_QUAI_t=0</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <v>68.42105263157895</v>
-      </c>
-      <c r="D9">
-        <v>52</v>
-      </c>
-      <c r="E9">
-        <v>0.01113355283129913</v>
-      </c>
-      <c r="F9">
-        <v>2.538478862160606</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>X07x1_AN_CONST4_mean_3=2</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>51.28205128205128</v>
-      </c>
-      <c r="C10">
-        <v>52.63157894736842</v>
-      </c>
-      <c r="D10">
-        <v>39</v>
-      </c>
-      <c r="E10">
-        <v>0.03258770024846401</v>
-      </c>
-      <c r="F10">
-        <v>2.137126547395211</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>X09x3_FAB_CROISS_reg_rec=1</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>48.88888888888889</v>
-      </c>
-      <c r="C11">
-        <v>57.89473684210527</v>
-      </c>
-      <c r="D11">
-        <v>45</v>
-      </c>
-      <c r="E11">
-        <v>0.04675905357362937</v>
-      </c>
-      <c r="F11">
-        <v>1.98847615552458</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>X07x1_AN_CONST4_mean_3=0</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <v>23.68421052631579</v>
-      </c>
-      <c r="D12">
-        <v>36</v>
-      </c>
-      <c r="E12">
-        <v>0.04711938644953639</v>
-      </c>
-      <c r="F12">
-        <v>-1.985225517932964</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>X09x3_FAB_CROISS_reg_rec=0</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>29.09090909090909</v>
-      </c>
-      <c r="C13">
-        <v>42.10526315789473</v>
-      </c>
-      <c r="D13">
-        <v>55.00000000000001</v>
-      </c>
-      <c r="E13">
-        <v>0.04675905357362936</v>
-      </c>
-      <c r="F13">
-        <v>-1.98847615552458</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>X13x2_QUAI_t=1</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <v>31.57894736842105</v>
-      </c>
-      <c r="D14">
-        <v>48</v>
-      </c>
-      <c r="E14">
-        <v>0.01113355283129913</v>
-      </c>
-      <c r="F14">
-        <v>-2.538478862160606</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ENG_TROU=1</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>17.24137931034483</v>
-      </c>
-      <c r="C15">
-        <v>13.1578947368421</v>
-      </c>
-      <c r="D15">
-        <v>29</v>
-      </c>
-      <c r="E15">
-        <v>0.0059946222988116</v>
-      </c>
-      <c r="F15">
-        <v>-2.748075393610414</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>y=ENG_malade</t>
-        </is>
-      </c>
-      <c r="B16">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>21.05263157894737</v>
-      </c>
-      <c r="D16">
-        <v>40</v>
-      </c>
-      <c r="E16">
-        <v>0.002519996361748793</v>
-      </c>
-      <c r="F16">
-        <v>-3.020929969651967</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>T13_ENG_milieuDegrad.x=1</t>
-        </is>
-      </c>
-      <c r="B17">
-        <v>22.44897959183674</v>
-      </c>
-      <c r="C17">
-        <v>28.94736842105263</v>
-      </c>
-      <c r="D17">
-        <v>49</v>
-      </c>
-      <c r="E17">
-        <v>0.001884132427423837</v>
-      </c>
-      <c r="F17">
-        <v>-3.107913441330891</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>y=Sain</t>
-        </is>
-      </c>
-      <c r="B18">
-        <v>13.79310344827586</v>
-      </c>
-      <c r="C18">
-        <v>10.52631578947368</v>
-      </c>
-      <c r="D18">
-        <v>29</v>
-      </c>
-      <c r="E18">
-        <v>0.001195777171588986</v>
-      </c>
-      <c r="F18">
-        <v>-3.239885473909872</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A03_Pos10sVERS=0</t>
-        </is>
-      </c>
-      <c r="B19">
-        <v>26.15384615384616</v>
-      </c>
-      <c r="C19">
-        <v>44.73684210526316</v>
-      </c>
-      <c r="D19">
-        <v>65</v>
-      </c>
-      <c r="E19">
-        <v>0.001172924822071965</v>
-      </c>
-      <c r="F19">
-        <v>-3.24538365587307</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>X25x1_ElvAlterChoiPers=1</t>
-        </is>
-      </c>
-      <c r="B20">
-        <v>22.64150943396227</v>
-      </c>
-      <c r="C20">
-        <v>31.57894736842105</v>
-      </c>
-      <c r="D20">
-        <v>53</v>
-      </c>
-      <c r="E20">
-        <v>0.0009091028687614568</v>
-      </c>
-      <c r="F20">
-        <v>-3.317243686250813</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>X18x2_ABBTX_PS=1</t>
-        </is>
-      </c>
-      <c r="B21">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="C21">
-        <v>21.05263157894737</v>
-      </c>
-      <c r="D21">
-        <v>44</v>
-      </c>
-      <c r="E21">
-        <v>0.0002952676582299573</v>
-      </c>
-      <c r="F21">
-        <v>-3.619416858636426</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>X19x2_ABB_E=1</t>
-        </is>
-      </c>
-      <c r="B22">
-        <v>17.5438596491228</v>
-      </c>
-      <c r="C22">
-        <v>26.31578947368421</v>
-      </c>
-      <c r="D22">
-        <v>56.99999999999999</v>
-      </c>
-      <c r="E22">
-        <v>1.425618920311419E-06</v>
-      </c>
-      <c r="F22">
-        <v>-4.821389209583734</v>
+        <v>-4.972900823686963</v>
       </c>
     </row>
   </sheetData>
@@ -1323,7 +1016,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1368,19 +1061,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>68.96551724137932</v>
+        <v>48.27586206896552</v>
       </c>
       <c r="C2">
-        <v>74.07407407407408</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="D2">
         <v>29</v>
       </c>
       <c r="E2">
-        <v>7.609382917928354E-09</v>
+        <v>2.757887456494466E-06</v>
       </c>
       <c r="F2">
-        <v>5.776890372311665</v>
+        <v>4.688073669159499</v>
       </c>
     </row>
     <row r="3">
@@ -1390,459 +1083,636 @@
         </is>
       </c>
       <c r="B3">
-        <v>45.83333333333333</v>
+        <v>31.25</v>
       </c>
       <c r="C3">
-        <v>81.48148148148148</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="D3">
         <v>48</v>
       </c>
       <c r="E3">
-        <v>4.665108695922419E-05</v>
+        <v>0.0009977966639501759</v>
       </c>
       <c r="F3">
-        <v>4.071800704545466</v>
+        <v>3.291147257709135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>X07x1_AN_CONST4_mean_3=0</t>
+          <t>A03_Pos10sVERS=0</t>
         </is>
       </c>
       <c r="B4">
-        <v>47.22222222222222</v>
+        <v>26.15384615384616</v>
       </c>
       <c r="C4">
-        <v>62.96296296296296</v>
+        <v>94.44444444444444</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="E4">
-        <v>0.0009848173843630217</v>
+        <v>0.002456863484610687</v>
       </c>
       <c r="F4">
-        <v>3.294828570496962</v>
+        <v>3.028604182089907</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A03_Pos10sVERS=0</t>
+          <t>X09x3_FAB_CROISS_reg_rec=0</t>
         </is>
       </c>
       <c r="B5">
-        <v>36.92307692307693</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="C5">
-        <v>88.88888888888889</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="D5">
-        <v>65</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="E5">
-        <v>0.001799030355493406</v>
+        <v>0.007637192531829059</v>
       </c>
       <c r="F5">
-        <v>3.121547806942372</v>
+        <v>2.667702170000107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>X09x3_FAB_CROISS_reg_rec=0</t>
+          <t>A03_PosSeroMyAs=Non</t>
         </is>
       </c>
       <c r="B6">
-        <v>38.18181818181819</v>
+        <v>27.45098039215686</v>
       </c>
       <c r="C6">
         <v>77.77777777777779</v>
       </c>
       <c r="D6">
-        <v>55.00000000000001</v>
+        <v>51</v>
       </c>
       <c r="E6">
-        <v>0.005563834726903613</v>
+        <v>0.01336292488032351</v>
       </c>
       <c r="F6">
-        <v>2.772436653556396</v>
+        <v>2.473947722942311</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>X18x2_ABBTX_PS=0</t>
+          <t>T16_BS_TenueSpeciElev=1</t>
         </is>
       </c>
       <c r="B7">
-        <v>37.5</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="C7">
-        <v>77.77777777777779</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>56.00000000000001</v>
+        <v>81</v>
       </c>
       <c r="E7">
-        <v>0.007899976403158763</v>
+        <v>0.01489356815242525</v>
       </c>
       <c r="F7">
-        <v>2.656315082176007</v>
+        <v>2.434956789041197</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>T10_PS_EauDebi_3=1</t>
+          <t>X12x2_MAT_PC=1</t>
         </is>
       </c>
       <c r="B8">
-        <v>40.47619047619047</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="C8">
-        <v>62.96296296296296</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="D8">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E8">
-        <v>0.01193910719125799</v>
+        <v>0.02553210836648901</v>
       </c>
       <c r="F8">
-        <v>2.513939031178025</v>
+        <v>2.233255376928994</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>T16_BS_TenueSpeciElev=1</t>
+          <t>y=ENG_malade</t>
         </is>
       </c>
       <c r="B9">
-        <v>32.09876543209877</v>
+        <v>7.5</v>
       </c>
       <c r="C9">
-        <v>96.29629629629629</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="D9">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E9">
-        <v>0.0136249577159408</v>
+        <v>0.02582054760534586</v>
       </c>
       <c r="F9">
-        <v>2.4670020510105</v>
+        <v>-2.228900173144928</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>X12x2_MAT_PC=1</t>
+          <t>X12x2_MAT_PC=2</t>
         </is>
       </c>
       <c r="B10">
-        <v>40.54054054054054</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="C10">
-        <v>55.55555555555556</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E10">
-        <v>0.02394119080342576</v>
+        <v>0.02553210836648901</v>
       </c>
       <c r="F10">
-        <v>2.258071681768957</v>
+        <v>-2.233255376928994</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>X12x2_MAT1FRLAV_1=0</t>
+          <t>T16_BS_TenueSpeciElev=0</t>
         </is>
       </c>
       <c r="B11">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>40.74074074074074</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>0.03597511769751226</v>
+        <v>0.01489356815242525</v>
       </c>
       <c r="F11">
-        <v>2.097208552988703</v>
+        <v>-2.434956789041197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>X12x2_MAT1FRLAV_1=1</t>
+          <t>A03_PosSeroMyAs=Oui</t>
         </is>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>8.163265306122449</v>
       </c>
       <c r="C12">
-        <v>51.85185185185185</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E12">
-        <v>0.03832827887691796</v>
+        <v>0.01336292488032351</v>
       </c>
       <c r="F12">
-        <v>2.071326666538506</v>
+        <v>-2.473947722942311</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>T10_PS_EauDebi_3=2</t>
+          <t>X09x3_FAB_CROISS_reg_rec=1</t>
         </is>
       </c>
       <c r="B13">
-        <v>6.25</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="C13">
-        <v>3.703703703703703</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E13">
-        <v>0.03700905787350871</v>
+        <v>0.007637192531829059</v>
       </c>
       <c r="F13">
-        <v>-2.085664129352358</v>
+        <v>-2.667702170000107</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>X12x2_MAT_PC=2</t>
+          <t>y=PS_malade</t>
         </is>
       </c>
       <c r="B14">
-        <v>19.04761904761905</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="C14">
-        <v>44.44444444444444</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="D14">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E14">
-        <v>0.02394119080342575</v>
+        <v>0.007153845094670208</v>
       </c>
       <c r="F14">
-        <v>-2.258071681768957</v>
+        <v>-2.689596542806759</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>T16_BS_TenueSpeciElev=0</t>
+          <t>A03_Pos10sVERS=1</t>
         </is>
       </c>
       <c r="B15">
-        <v>5.263157894736842</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="C15">
-        <v>3.703703703703703</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E15">
-        <v>0.01362495771594081</v>
+        <v>0.002456863484610688</v>
       </c>
       <c r="F15">
-        <v>-2.4670020510105</v>
+        <v>-3.028604182089907</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>X07x1_AN_CONST4_mean_3=1</t>
+          <t>X13x2_QUAI_t=0</t>
         </is>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>5.769230769230769</v>
       </c>
       <c r="C16">
-        <v>7.407407407407407</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E16">
-        <v>0.0110570270832329</v>
+        <v>0.0009977966639501759</v>
       </c>
       <c r="F16">
-        <v>-2.540891358996507</v>
+        <v>-3.291147257709135</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>X18x2_ABBTX_PS=1</t>
+          <t>X12x2_MAT1FRLAV_1=2</t>
         </is>
       </c>
       <c r="B17">
-        <v>13.63636363636363</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E17">
-        <v>0.007899976403158763</v>
+        <v>3.016612825438938E-05</v>
       </c>
       <c r="F17">
-        <v>-2.656315082176007</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+        <v>-4.172208588330578</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cla/Mod</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mod/Cla</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>p.value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>v.test</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>y=PS_malade</t>
         </is>
       </c>
-      <c r="B18">
-        <v>9.67741935483871</v>
-      </c>
-      <c r="C18">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="D18">
+      <c r="B2">
+        <v>64.51612903225806</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2">
         <v>31</v>
       </c>
-      <c r="E18">
-        <v>0.007657035618269022</v>
-      </c>
-      <c r="F18">
-        <v>-2.666830159720556</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>X09x3_FAB_CROISS_reg_rec=1</t>
-        </is>
-      </c>
-      <c r="B19">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="C19">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="D19">
-        <v>45</v>
-      </c>
-      <c r="E19">
-        <v>0.005563834726903613</v>
-      </c>
-      <c r="F19">
-        <v>-2.772436653556396</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="E2">
+        <v>4.248840961115672E-09</v>
+      </c>
+      <c r="F2">
+        <v>5.874202365278927</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>X19x2_ABB_E=0</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>46.51162790697674</v>
+      </c>
+      <c r="C3">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>43</v>
+      </c>
+      <c r="E3">
+        <v>2.027822440611543E-05</v>
+      </c>
+      <c r="F3">
+        <v>4.261805120610359</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>A03_Pos10sVERS=1</t>
         </is>
       </c>
-      <c r="B20">
-        <v>8.571428571428571</v>
-      </c>
-      <c r="C20">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="D20">
+      <c r="B4">
+        <v>48.57142857142857</v>
+      </c>
+      <c r="C4">
+        <v>68</v>
+      </c>
+      <c r="D4">
         <v>35</v>
       </c>
-      <c r="E20">
-        <v>0.001799030355493406</v>
-      </c>
-      <c r="F20">
-        <v>-3.121547806942372</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="E4">
+        <v>0.0001234890704403167</v>
+      </c>
+      <c r="F4">
+        <v>3.839094156588062</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>T13_ENG_milieuDegrad.x=0</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>37.25490196078432</v>
+      </c>
+      <c r="C5">
+        <v>76</v>
+      </c>
+      <c r="D5">
+        <v>51</v>
+      </c>
+      <c r="E5">
+        <v>0.004239199904607884</v>
+      </c>
+      <c r="F5">
+        <v>2.859791222053164</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>X12x2_MAT1FRLAV_1=2</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>37.5</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>0.02246205956550727</v>
+      </c>
+      <c r="F6">
+        <v>2.28246232124468</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ENG_TROU=0</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>30.98591549295774</v>
+      </c>
+      <c r="C7">
+        <v>88</v>
+      </c>
+      <c r="D7">
+        <v>71</v>
+      </c>
+      <c r="E7">
+        <v>0.02896465824010228</v>
+      </c>
+      <c r="F7">
+        <v>2.183967201432272</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ENG_TROU=1</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>0.02896465824010228</v>
+      </c>
+      <c r="F8">
+        <v>-2.183967201432272</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>y=ENG_malade</t>
         </is>
       </c>
-      <c r="B21">
+      <c r="B9">
         <v>10</v>
       </c>
-      <c r="C21">
-        <v>14.81481481481481</v>
-      </c>
-      <c r="D21">
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
         <v>40</v>
       </c>
-      <c r="E21">
-        <v>0.001531452677347339</v>
-      </c>
-      <c r="F21">
-        <v>-3.168656512657507</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>X13x2_QUAI_t=0</t>
-        </is>
-      </c>
-      <c r="B22">
-        <v>9.615384615384617</v>
-      </c>
-      <c r="C22">
-        <v>18.51851851851852</v>
-      </c>
-      <c r="D22">
-        <v>52</v>
-      </c>
-      <c r="E22">
-        <v>4.665108695922423E-05</v>
-      </c>
-      <c r="F22">
-        <v>-4.071800704545466</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>X12x2_MAT1FRLAV_1=2</t>
-        </is>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>7.407407407407407</v>
-      </c>
-      <c r="D23">
-        <v>40</v>
-      </c>
-      <c r="E23">
-        <v>2.412750270841435E-05</v>
-      </c>
-      <c r="F23">
-        <v>-4.222810167770741</v>
+      <c r="E9">
+        <v>0.004324844124977511</v>
+      </c>
+      <c r="F9">
+        <v>-2.853441857002032</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>T13_ENG_milieuDegrad.x=1</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>12.24489795918367</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>49</v>
+      </c>
+      <c r="E10">
+        <v>0.004239199904607886</v>
+      </c>
+      <c r="F10">
+        <v>-2.859791222053164</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>y=Sain</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>3.448275862068965</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>0.0007159584263149542</v>
+      </c>
+      <c r="F11">
+        <v>-3.383393986566063</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A03_Pos10sVERS=0</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>12.30769230769231</v>
+      </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>65</v>
+      </c>
+      <c r="E12">
+        <v>0.0001234890704403166</v>
+      </c>
+      <c r="F12">
+        <v>-3.839094156588062</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>X19x2_ABB_E=1</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>8.771929824561402</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="E13">
+        <v>2.027822440611543E-05</v>
+      </c>
+      <c r="F13">
+        <v>-4.261805120610359</v>
       </c>
     </row>
   </sheetData>
